--- a/data/trans_bre/P31_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>19,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32,47%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 20,85</t>
+          <t>-18,83; 15,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 14,22</t>
+          <t>-14,9; 21,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 13,12</t>
+          <t>-17,66; 20,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 30,45</t>
+          <t>-2,17; 42,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 18,47</t>
+          <t>-20,61; 21,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 16,32</t>
+          <t>-17,06; 33,44</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-19,04; 29,34</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 102,76</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-8,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,25%</t>
+          <t>-16,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>-8,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>-9,58%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-17,64%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 2,17</t>
+          <t>-21,27; 3,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 12,06</t>
+          <t>-22,81; 3,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 12,57</t>
+          <t>-15,01; 10,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 2,38</t>
+          <t>-30,61; -4,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 16,0</t>
+          <t>-22,01; 3,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 15,89</t>
+          <t>-24,68; 3,96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-15,88; 11,81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-31,63; -5,23</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,76</t>
+          <t>-11,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,66%</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>-12,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,56; -4,05</t>
+          <t>-21,76; -1,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 4,28</t>
+          <t>-7,93; 15,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 20,08</t>
+          <t>-5,81; 9,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -4,45</t>
+          <t>-9,15; 9,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 4,96</t>
+          <t>-22,87; -1,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 26,79</t>
+          <t>-9,06; 20,87</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 10,36</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 11,08</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>-4,24%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 2,35</t>
+          <t>-9,56; 11,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 3,25</t>
+          <t>-12,37; 5,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 5,83</t>
+          <t>-2,64; 14,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 2,9</t>
+          <t>1,77; 23,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 3,7</t>
+          <t>-10,59; 15,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 6,78</t>
+          <t>-13,5; 6,47</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 18,56</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 33,85</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,04%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 10,0</t>
+          <t>-11,58; 12,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 14,91</t>
+          <t>-10,91; 15,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 1,55</t>
+          <t>-15,06; 6,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 12,18</t>
+          <t>-19,63; 0,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 19,05</t>
+          <t>-13,16; 15,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 1,7</t>
+          <t>-11,87; 21,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-15,93; 6,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-19,95; 0,86</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-9,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>-10,04%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 24,64</t>
+          <t>-1,45; 33,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 9,85</t>
+          <t>-26,35; 3,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 13,45</t>
+          <t>-11,05; 18,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 37,75</t>
+          <t>-10,25; 22,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 11,58</t>
+          <t>-1,43; 57,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 16,77</t>
+          <t>-27,33; 3,88</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-12,03; 26,26</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-11,05; 32,48</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 1,89</t>
+          <t>-6,83; 3,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,61</t>
+          <t>-7,4; 3,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,59</t>
+          <t>-3,46; 5,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 2,24</t>
+          <t>-3,97; 6,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 4,2</t>
+          <t>-7,82; 4,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,55</t>
+          <t>-8,26; 4,12</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 6,8</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 8,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P31_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>19,23</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,83%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>32,47%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.429879806447954</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.523467151945723</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.7519191384197432</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>18.64959062702897</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.02924656281879942</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.01851683322824331</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.009134004904426488</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.311440977420795</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,83; 15,83</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,9; 21,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,66; 20,09</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 42,88</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-20,61; 21,54</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-17,06; 33,44</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; 29,34</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 102,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.39406034267518</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.35313380264667</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.92936126123113</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.961895113327215</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1593505019266636</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1611044496944314</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1865004641553276</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.03366465352937623</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.84523581252789</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.42155256254381</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.30747830244425</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>41.77162455492977</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.2831756800932094</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2705717164158276</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2743091340924397</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.055999879277044</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,12</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,95</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-16,71</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-8,79%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-9,58%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,24%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-17,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-21,27; 3,52</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,81; 3,73</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,01; 10,18</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-30,61; -4,77</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-22,01; 3,57</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; 3,96</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-15,88; 11,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-31,63; -5,23</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-8.375310971953787</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.268313026581394</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.369080613018914</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-16.72239998361316</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.08985320338477253</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.0475236658707802</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.01533133839839002</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1767683899602131</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,75</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-12,78%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-21.08660834242576</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.43205578733637</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.55141542261842</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-30.53624451221135</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2186848239805323</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1838455030925616</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1526089911663364</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3170226038003091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-21,76; -1,79</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 15,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 9,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,15; 9,33</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-22,87; -1,95</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 20,87</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 10,36</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-9,74; 11,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.346511088392389</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.35899372379086</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.37667155828971</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-4.278995553227833</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.01531920258091909</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1409068010294963</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.168650344201094</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.05035651024426172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,31</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,38</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,24%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,87%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-11.9808715114474</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.403155412816693</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6281852672551214</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.5864232283683823</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1295922265303442</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.02907037496251465</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.006668501753197818</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.006427974308967186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; 11,71</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,37; 5,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 14,72</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 23,64</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; 15,2</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-13,5; 6,47</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 18,56</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 33,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-21.68578106936442</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.995542849591232</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.05156424931564</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.20478452530697</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2271533074418241</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.09954441907457977</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.06139282901526349</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1062552401924999</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.970252838312883</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.34074670843435</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.672137988955036</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.234714899126388</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.02286497628702175</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2161043375770985</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1095734358815385</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.09646888974535889</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,56</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-7,73</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,83%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-8,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,58; 12,46</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,91; 15,98</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-15,06; 6,33</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-19,63; 0,79</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-13,16; 15,58</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 21,53</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-15,93; 6,84</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-19,95; 0,86</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.267609240404254</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.809602459881822</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.887655584354611</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.30482643872348</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.003173640797278527</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.04179738057577313</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0677334161162188</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1579399440886076</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,19</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-9,3</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,55</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>21,17%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-10,04%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,05%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.91915681680354</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.4594784029759</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.847076695569994</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.784150078166971</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1219952236645111</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1334865341523873</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03135846854891539</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.0240973781687517</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 33,83</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-26,35; 3,85</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 18,92</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-10,25; 22,26</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 57,9</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-27,33; 3,88</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-12,03; 26,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 32,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.36476161594174</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.589718963723061</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>16.08256796114716</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>24.00860488173903</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1331256614042197</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.06365833707205443</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2011309608176642</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3486388321124766</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-2,27%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-2,28%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.210637458936736</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.308706520070604</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-4.112503377416621</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-7.491856018550303</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.01410697896877779</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.05157122589379597</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.04413858363344445</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.07808868853758019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 3,78</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 3,37</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 5,82</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 6,87</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 4,56</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 4,12</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 6,8</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 8,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.9123295276809</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.29614956811469</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-16.03672855900752</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-19.32099510375206</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1695910909238131</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.1235247481737994</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.1694773835659118</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.1961554697553439</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.30772434531356</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>16.85571804104542</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.405675777379484</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.167332841534961</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.1404441915623192</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.219218330566225</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.05907497180164709</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.01256351858717816</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>12.74784307303218</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-8.980760620357465</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>3.377525478347609</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>8.745076328801915</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1704139379317101</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.09712903799207974</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.03976670970141694</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.1087249836571597</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-3.97886960436553</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-27.05702286752781</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-10.36034357385921</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-7.950856631577223</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.04749560082746769</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.2774396649201695</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.1115142549534657</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.09000878260692653</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>29.79429429267487</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.904219665108641</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>19.0400604120479</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>24.5210508418925</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.4782306203740713</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.04323201755490122</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.2554279282120945</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.3648799037088006</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.65270934791989</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.315156717379373</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.35886111241712</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.712572044659544</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.03063760828591364</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.01513271805161266</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.01531604404871071</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.02016355271934123</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.264066869588075</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.479850003541856</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.34545536728739</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-3.550923358059879</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.08126688494532257</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.07361724050004204</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.03676695994701895</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.0401621922908607</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.69496997220229</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.391030440090731</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.16300508347239</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>7.387997499023246</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.03238238010091153</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.05264288517160035</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.07147630228531314</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.08916825258595468</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
